--- a/data/pca/factorExposure/factorExposure_2009-12-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-12-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.004321787116231069</v>
+        <v>0.01677483002814124</v>
       </c>
       <c r="C2">
-        <v>-0.009645983288331036</v>
+        <v>-0.001042072880762955</v>
       </c>
       <c r="D2">
-        <v>-0.001714028006458652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.007516433670008849</v>
+      </c>
+      <c r="E2">
+        <v>0.0003177804933032815</v>
+      </c>
+      <c r="F2">
+        <v>0.01142170165556179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.03737276600372119</v>
+        <v>0.09370784471991894</v>
       </c>
       <c r="C4">
-        <v>-0.112732668608577</v>
+        <v>-0.01521168365018413</v>
       </c>
       <c r="D4">
-        <v>0.03179390344240939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08358499879918589</v>
+      </c>
+      <c r="E4">
+        <v>0.02808078328197958</v>
+      </c>
+      <c r="F4">
+        <v>-0.03084261852414616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.05138316662002633</v>
+        <v>0.1575617629003606</v>
       </c>
       <c r="C6">
-        <v>-0.1220516115025052</v>
+        <v>-0.02531599789836359</v>
       </c>
       <c r="D6">
-        <v>-0.04673626292543742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0206110390633654</v>
+      </c>
+      <c r="E6">
+        <v>0.01199605842507983</v>
+      </c>
+      <c r="F6">
+        <v>-0.04577133808448148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.01597924080681489</v>
+        <v>0.06266803165643965</v>
       </c>
       <c r="C7">
-        <v>-0.082299814831245</v>
+        <v>0.001719495985911515</v>
       </c>
       <c r="D7">
-        <v>0.01047578793038361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05306432390862986</v>
+      </c>
+      <c r="E7">
+        <v>0.009688236206332555</v>
+      </c>
+      <c r="F7">
+        <v>-0.04771875858983966</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.002577820538781909</v>
+        <v>0.05725632502264524</v>
       </c>
       <c r="C8">
-        <v>-0.06743206252273519</v>
+        <v>0.01377423694376458</v>
       </c>
       <c r="D8">
-        <v>-0.01365014212105032</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03348262686852727</v>
+      </c>
+      <c r="E8">
+        <v>0.01730711024580931</v>
+      </c>
+      <c r="F8">
+        <v>0.02770351085866422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.03192568558075184</v>
+        <v>0.0711800091134237</v>
       </c>
       <c r="C9">
-        <v>-0.09494411154175764</v>
+        <v>-0.01075841469502339</v>
       </c>
       <c r="D9">
-        <v>0.03351834618084903</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08607925638894305</v>
+      </c>
+      <c r="E9">
+        <v>0.02281630045772343</v>
+      </c>
+      <c r="F9">
+        <v>-0.04738972350162807</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.016075548533267</v>
+        <v>0.09573922108505212</v>
       </c>
       <c r="C10">
-        <v>-0.03021993823741708</v>
+        <v>-0.02087235114519389</v>
       </c>
       <c r="D10">
-        <v>-0.1238131572468445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1708740943605137</v>
+      </c>
+      <c r="E10">
+        <v>-0.03600932882313507</v>
+      </c>
+      <c r="F10">
+        <v>0.05382159071773257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.03536268680118721</v>
+        <v>0.08751634908107606</v>
       </c>
       <c r="C11">
-        <v>-0.09650721611664725</v>
+        <v>-0.01027343966536949</v>
       </c>
       <c r="D11">
-        <v>0.05151320020673184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1168335467067241</v>
+      </c>
+      <c r="E11">
+        <v>0.04619188980618416</v>
+      </c>
+      <c r="F11">
+        <v>-0.02174427038280059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.03411167068902906</v>
+        <v>0.09221440613655714</v>
       </c>
       <c r="C12">
-        <v>-0.1097435937961799</v>
+        <v>-0.007526937999171937</v>
       </c>
       <c r="D12">
-        <v>0.04698507380292073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1313864693339571</v>
+      </c>
+      <c r="E12">
+        <v>0.04746023284336714</v>
+      </c>
+      <c r="F12">
+        <v>-0.02594542930870719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.01137178779432642</v>
+        <v>0.04165392126624025</v>
       </c>
       <c r="C13">
-        <v>-0.03574716744474899</v>
+        <v>-0.002993589355341119</v>
       </c>
       <c r="D13">
-        <v>0.02726919753968795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05182664346558666</v>
+      </c>
+      <c r="E13">
+        <v>-0.008687496384336661</v>
+      </c>
+      <c r="F13">
+        <v>-0.003250004338070416</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01980216589945096</v>
+        <v>0.0226179260657983</v>
       </c>
       <c r="C14">
-        <v>-0.02899800962265363</v>
+        <v>-0.01372346064000913</v>
       </c>
       <c r="D14">
-        <v>-0.001656883658294094</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03293779671524934</v>
+      </c>
+      <c r="E14">
+        <v>0.01713597063237884</v>
+      </c>
+      <c r="F14">
+        <v>-0.01361423763375398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01408385234216047</v>
+        <v>0.03283842715541361</v>
       </c>
       <c r="C15">
-        <v>-0.03264662631288485</v>
+        <v>-0.004654298556120151</v>
       </c>
       <c r="D15">
-        <v>0.007732421583535208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04518633490288381</v>
+      </c>
+      <c r="E15">
+        <v>0.005981212756462862</v>
+      </c>
+      <c r="F15">
+        <v>-0.02277055800167159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.02508049732046039</v>
+        <v>0.07425055620797832</v>
       </c>
       <c r="C16">
-        <v>-0.09903134528597472</v>
+        <v>-0.001423684748158458</v>
       </c>
       <c r="D16">
-        <v>0.03959200332042045</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1252770702483417</v>
+      </c>
+      <c r="E16">
+        <v>0.06142541893755513</v>
+      </c>
+      <c r="F16">
+        <v>-0.0241310567966739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,24 +1031,36 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.03217418966579105</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003451597601667315</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01945599861062326</v>
+      </c>
+      <c r="E18">
+        <v>-0.007489433799742875</v>
+      </c>
+      <c r="F18">
+        <v>0.003950788082234333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.01657387655033971</v>
+        <v>0.06105406419538389</v>
       </c>
       <c r="C20">
-        <v>-0.05918669860126566</v>
+        <v>-0.0001327675960311817</v>
       </c>
       <c r="D20">
-        <v>0.006280227670267621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0769162767875092</v>
+      </c>
+      <c r="E20">
+        <v>0.05521424015665559</v>
+      </c>
+      <c r="F20">
+        <v>-0.02280876425478651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.01524591952141595</v>
+        <v>0.04051634122876745</v>
       </c>
       <c r="C21">
-        <v>-0.02184884756672927</v>
+        <v>-0.006278053272102392</v>
       </c>
       <c r="D21">
-        <v>0.002162730863853734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03751658874727157</v>
+      </c>
+      <c r="E21">
+        <v>-0.005574903123652435</v>
+      </c>
+      <c r="F21">
+        <v>0.02413827711714755</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.007482866572750041</v>
+        <v>0.04369585728426154</v>
       </c>
       <c r="C22">
-        <v>-0.03098203657577307</v>
+        <v>-0.0006935854569254578</v>
       </c>
       <c r="D22">
-        <v>-0.033256770628271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0042030772105142</v>
+      </c>
+      <c r="E22">
+        <v>0.03012090159024254</v>
+      </c>
+      <c r="F22">
+        <v>0.0365397402417767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.007468923333713167</v>
+        <v>0.04368145667433644</v>
       </c>
       <c r="C23">
-        <v>-0.03092621845911616</v>
+        <v>-0.0006892652287853063</v>
       </c>
       <c r="D23">
-        <v>-0.03332576378203194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004207670090725119</v>
+      </c>
+      <c r="E23">
+        <v>0.03032237309372928</v>
+      </c>
+      <c r="F23">
+        <v>0.03650335575602006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.02583826955508045</v>
+        <v>0.08006102164796527</v>
       </c>
       <c r="C24">
-        <v>-0.1058328884247587</v>
+        <v>-0.001862328171617492</v>
       </c>
       <c r="D24">
-        <v>0.04428841210149152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1208348749255956</v>
+      </c>
+      <c r="E24">
+        <v>0.04889915437487028</v>
+      </c>
+      <c r="F24">
+        <v>-0.02609621325911565</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.02974757901566825</v>
+        <v>0.08487735044545545</v>
       </c>
       <c r="C25">
-        <v>-0.1009130369477508</v>
+        <v>-0.004184721020452863</v>
       </c>
       <c r="D25">
-        <v>0.0489694296034246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1093218103907344</v>
+      </c>
+      <c r="E25">
+        <v>0.03244556699949075</v>
+      </c>
+      <c r="F25">
+        <v>-0.02669174780758451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.02735857148713756</v>
+        <v>0.0581962269245581</v>
       </c>
       <c r="C26">
-        <v>-0.04717985520122363</v>
+        <v>-0.01440461457543506</v>
       </c>
       <c r="D26">
-        <v>-0.00557689048334396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04001619499311329</v>
+      </c>
+      <c r="E26">
+        <v>0.0282442240664764</v>
+      </c>
+      <c r="F26">
+        <v>0.008976089899052304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.01783416483028836</v>
+        <v>0.1406690751320647</v>
       </c>
       <c r="C28">
-        <v>-0.05659800552072162</v>
+        <v>-0.0202703897249692</v>
       </c>
       <c r="D28">
-        <v>-0.2143637005243915</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2615112384605301</v>
+      </c>
+      <c r="E28">
+        <v>-0.06743445340223611</v>
+      </c>
+      <c r="F28">
+        <v>-0.01013684944756041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.01538056386874282</v>
+        <v>0.02794325780660034</v>
       </c>
       <c r="C29">
-        <v>-0.0281941496855899</v>
+        <v>-0.008180864633871594</v>
       </c>
       <c r="D29">
-        <v>-0.00408947700146723</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03154808645073942</v>
+      </c>
+      <c r="E29">
+        <v>0.01096814388875616</v>
+      </c>
+      <c r="F29">
+        <v>0.01126458582169142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.02596403219652692</v>
+        <v>0.06121741410902842</v>
       </c>
       <c r="C30">
-        <v>-0.1289909532951452</v>
+        <v>-0.003119564527236571</v>
       </c>
       <c r="D30">
-        <v>0.03035622872631311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08889694343971197</v>
+      </c>
+      <c r="E30">
+        <v>0.01907325769659512</v>
+      </c>
+      <c r="F30">
+        <v>-0.08324350917285769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02339465504407733</v>
+        <v>0.04982676322702571</v>
       </c>
       <c r="C31">
-        <v>-0.03401835116335068</v>
+        <v>-0.01510787339086466</v>
       </c>
       <c r="D31">
-        <v>0.005272782430986687</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02499888663953953</v>
+      </c>
+      <c r="E31">
+        <v>0.02754291163685699</v>
+      </c>
+      <c r="F31">
+        <v>0.002443450263945425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.01282814592301879</v>
+        <v>0.05010250476291619</v>
       </c>
       <c r="C32">
-        <v>-0.06489461050576885</v>
+        <v>0.001688269827228885</v>
       </c>
       <c r="D32">
-        <v>-0.01257201695490075</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03682554222638878</v>
+      </c>
+      <c r="E32">
+        <v>0.03163175657283596</v>
+      </c>
+      <c r="F32">
+        <v>-0.003267396617984623</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.03130404215987279</v>
+        <v>0.08937081554198933</v>
       </c>
       <c r="C33">
-        <v>-0.1083630851681026</v>
+        <v>-0.007481980929149624</v>
       </c>
       <c r="D33">
-        <v>0.03324706563574464</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.09923296025658224</v>
+      </c>
+      <c r="E33">
+        <v>0.04361154535011184</v>
+      </c>
+      <c r="F33">
+        <v>-0.03510217159132763</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.03250223284520445</v>
+        <v>0.06763962389097417</v>
       </c>
       <c r="C34">
-        <v>-0.0898753414032066</v>
+        <v>-0.01029730207593026</v>
       </c>
       <c r="D34">
-        <v>0.04649683957011369</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1076919559874457</v>
+      </c>
+      <c r="E34">
+        <v>0.03436074652697371</v>
+      </c>
+      <c r="F34">
+        <v>-0.03358864386684657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.006274450848373318</v>
+        <v>0.02439822620934412</v>
       </c>
       <c r="C35">
-        <v>-0.01833717323834882</v>
+        <v>-0.002377154538808826</v>
       </c>
       <c r="D35">
-        <v>-0.001334192396086508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0113541525634697</v>
+      </c>
+      <c r="E35">
+        <v>0.0114613589292994</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007688855848856422</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.01429146193921739</v>
+        <v>0.02785575229709427</v>
       </c>
       <c r="C36">
-        <v>-0.02956666939047132</v>
+        <v>-0.007038590013490989</v>
       </c>
       <c r="D36">
-        <v>0.01073387925122363</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03942505788350833</v>
+      </c>
+      <c r="E36">
+        <v>0.0164594842352184</v>
+      </c>
+      <c r="F36">
+        <v>-0.01490689322909441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.0003824322558902241</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>9.867387042935717e-05</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.0004211181825541516</v>
+      </c>
+      <c r="E37">
+        <v>-0.0004654417937183043</v>
+      </c>
+      <c r="F37">
+        <v>-0.0006231606565565785</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0008047663195425582</v>
+        <v>0.00154397050199233</v>
       </c>
       <c r="C38">
-        <v>-0.003909366295712019</v>
+        <v>-0.000264192267590019</v>
       </c>
       <c r="D38">
-        <v>-0.002751539591503784</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0004417879653174536</v>
+      </c>
+      <c r="E38">
+        <v>0.0002800233066993639</v>
+      </c>
+      <c r="F38">
+        <v>0.0008201166331786947</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.0487299413901209</v>
+        <v>0.1050596900468351</v>
       </c>
       <c r="C39">
-        <v>-0.1499932587459657</v>
+        <v>-0.01549965413144182</v>
       </c>
       <c r="D39">
-        <v>0.07811820438583311</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1540565247510718</v>
+      </c>
+      <c r="E39">
+        <v>0.05894052053902793</v>
+      </c>
+      <c r="F39">
+        <v>-0.0291262726072534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01207364095986176</v>
+        <v>0.04148245530934985</v>
       </c>
       <c r="C40">
-        <v>-0.009806558686098045</v>
+        <v>-0.006719577629651242</v>
       </c>
       <c r="D40">
-        <v>-0.005265106198809902</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.031968973370728</v>
+      </c>
+      <c r="E40">
+        <v>0.002759526921575496</v>
+      </c>
+      <c r="F40">
+        <v>0.01629925821158415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.0126667447124822</v>
+        <v>0.02800298151908683</v>
       </c>
       <c r="C41">
-        <v>-0.01787131846769794</v>
+        <v>-0.00678187492003331</v>
       </c>
       <c r="D41">
-        <v>-0.01088887535270236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01020994624347189</v>
+      </c>
+      <c r="E41">
+        <v>0.01244962322257313</v>
+      </c>
+      <c r="F41">
+        <v>0.006360478543895534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.01489979489645685</v>
+        <v>0.04074009976242429</v>
       </c>
       <c r="C43">
-        <v>-0.02642512845592382</v>
+        <v>-0.006745844503045877</v>
       </c>
       <c r="D43">
-        <v>-0.005109968005311227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01958609019783292</v>
+      </c>
+      <c r="E43">
+        <v>0.02468913562758457</v>
+      </c>
+      <c r="F43">
+        <v>0.01288591866327463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.04502347544892062</v>
+        <v>0.07977570137291883</v>
       </c>
       <c r="C44">
-        <v>-0.1233324911718754</v>
+        <v>-0.01970439663633396</v>
       </c>
       <c r="D44">
-        <v>0.02544705252928289</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09766861985945273</v>
+      </c>
+      <c r="E44">
+        <v>0.06489239463850303</v>
+      </c>
+      <c r="F44">
+        <v>-0.1560958909563526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,164 +1591,236 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.005958340720309293</v>
+        <v>0.02354138518853326</v>
       </c>
       <c r="C46">
-        <v>-0.006262085107752909</v>
+        <v>-0.003441223465681888</v>
       </c>
       <c r="D46">
-        <v>-0.01871597919392065</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01252456583831072</v>
+      </c>
+      <c r="E46">
+        <v>0.02161380803933087</v>
+      </c>
+      <c r="F46">
+        <v>0.00597445159197711</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.01259969153915629</v>
+        <v>0.05138030944186916</v>
       </c>
       <c r="C47">
-        <v>-0.03173290013897911</v>
+        <v>-0.003301779540174459</v>
       </c>
       <c r="D47">
-        <v>-0.02343592213214771</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0137677980058472</v>
+      </c>
+      <c r="E47">
+        <v>0.02335224182948387</v>
+      </c>
+      <c r="F47">
+        <v>0.03348423141924471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.01528319296416829</v>
+        <v>0.04981976080074736</v>
       </c>
       <c r="C48">
-        <v>-0.0488341948045341</v>
+        <v>-0.002353801097568408</v>
       </c>
       <c r="D48">
-        <v>0.02683715801129525</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04994874515017372</v>
+      </c>
+      <c r="E48">
+        <v>-0.00622832212011864</v>
+      </c>
+      <c r="F48">
+        <v>-0.00945461538059016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.05719706502009556</v>
+        <v>0.2001495366712925</v>
       </c>
       <c r="C49">
-        <v>-0.2217713788543603</v>
+        <v>-0.01867545393445837</v>
       </c>
       <c r="D49">
-        <v>-0.05508804887103177</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007660226142673622</v>
+      </c>
+      <c r="E49">
+        <v>0.03076753533813775</v>
+      </c>
+      <c r="F49">
+        <v>-0.0392360519931312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.02105114040142398</v>
+        <v>0.05071377134229671</v>
       </c>
       <c r="C50">
-        <v>-0.03925765927701209</v>
+        <v>-0.01118709141262281</v>
       </c>
       <c r="D50">
-        <v>-0.002734383143135012</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02355565783352671</v>
+      </c>
+      <c r="E50">
+        <v>0.02947488033178059</v>
+      </c>
+      <c r="F50">
+        <v>-0.009319047953604317</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.0003014754260649863</v>
+        <v>0.0004858991729476949</v>
       </c>
       <c r="C51">
-        <v>-0.001156645667516936</v>
+        <v>-0.0001308817728470175</v>
       </c>
       <c r="D51">
-        <v>-0.001094639200371291</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.0002650261616039391</v>
+      </c>
+      <c r="E51">
+        <v>-5.257591097000915e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.001871309506883746</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.04209027935496482</v>
+        <v>0.1462076168259123</v>
       </c>
       <c r="C52">
-        <v>-0.1477250902503924</v>
+        <v>-0.0154870518266003</v>
       </c>
       <c r="D52">
-        <v>0.02222116559799144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04498042526264574</v>
+      </c>
+      <c r="E52">
+        <v>0.0208114784938788</v>
+      </c>
+      <c r="F52">
+        <v>-0.0416319737563509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.0465021133879947</v>
+        <v>0.1719747591367203</v>
       </c>
       <c r="C53">
-        <v>-0.1700445557212937</v>
+        <v>-0.018667767800974</v>
       </c>
       <c r="D53">
-        <v>-0.01354817899910716</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.006874601440170135</v>
+      </c>
+      <c r="E53">
+        <v>0.03210739002496511</v>
+      </c>
+      <c r="F53">
+        <v>-0.07263475065167063</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01799892120135657</v>
+        <v>0.02264434979675786</v>
       </c>
       <c r="C54">
-        <v>-0.03380385746773427</v>
+        <v>-0.0123188701349137</v>
       </c>
       <c r="D54">
-        <v>0.002476646051161077</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0339876246060246</v>
+      </c>
+      <c r="E54">
+        <v>0.0183327845090745</v>
+      </c>
+      <c r="F54">
+        <v>0.003695110514837541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.03223496080155411</v>
+        <v>0.1137822282086744</v>
       </c>
       <c r="C55">
-        <v>-0.08859549791148465</v>
+        <v>-0.01632630852890887</v>
       </c>
       <c r="D55">
-        <v>0.001743438909318909</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01001447441744563</v>
+      </c>
+      <c r="E55">
+        <v>0.0284972624639093</v>
+      </c>
+      <c r="F55">
+        <v>-0.04711086173844531</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.04309408575292292</v>
+        <v>0.1766820881904403</v>
       </c>
       <c r="C56">
-        <v>-0.1556178762734555</v>
+        <v>-0.01617552343597466</v>
       </c>
       <c r="D56">
-        <v>-0.01205844518808207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.00115643473741404</v>
+      </c>
+      <c r="E56">
+        <v>0.03592579664301424</v>
+      </c>
+      <c r="F56">
+        <v>-0.05115432449284226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,626 +1831,896 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.01614506244197623</v>
+        <v>0.04612840999728068</v>
       </c>
       <c r="C58">
-        <v>-0.04930129833719879</v>
+        <v>-0.0002983600461666715</v>
       </c>
       <c r="D58">
-        <v>0.01732518805577365</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06762866183677535</v>
+      </c>
+      <c r="E58">
+        <v>0.02701013955934094</v>
+      </c>
+      <c r="F58">
+        <v>0.03633688824027578</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.02755769754723737</v>
+        <v>0.1684154097164827</v>
       </c>
       <c r="C59">
-        <v>-0.1106352757097601</v>
+        <v>-0.02088638492883628</v>
       </c>
       <c r="D59">
-        <v>-0.218454720392656</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2181808789333115</v>
+      </c>
+      <c r="E59">
+        <v>-0.04617416073672246</v>
+      </c>
+      <c r="F59">
+        <v>0.03460314416548267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.04590454422442652</v>
+        <v>0.2313695931296934</v>
       </c>
       <c r="C60">
-        <v>-0.2657894246490761</v>
+        <v>0.003030254930369396</v>
       </c>
       <c r="D60">
-        <v>0.006690346133821735</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04274805629500997</v>
+      </c>
+      <c r="E60">
+        <v>0.01157291603023912</v>
+      </c>
+      <c r="F60">
+        <v>0.006805287917344938</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.03684296123651667</v>
+        <v>0.08163779965454504</v>
       </c>
       <c r="C61">
-        <v>-0.1192142057519788</v>
+        <v>-0.01143634195129658</v>
       </c>
       <c r="D61">
-        <v>0.03855121135377145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1168529650967628</v>
+      </c>
+      <c r="E61">
+        <v>0.03870376178747052</v>
+      </c>
+      <c r="F61">
+        <v>-0.01129168390613305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.04614527337709203</v>
+        <v>0.1704767508320747</v>
       </c>
       <c r="C62">
-        <v>-0.1582988819075509</v>
+        <v>-0.01960468628756758</v>
       </c>
       <c r="D62">
-        <v>-0.006321076367866693</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006894188058119053</v>
+      </c>
+      <c r="E62">
+        <v>0.0355123598693725</v>
+      </c>
+      <c r="F62">
+        <v>-0.03319414346818381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.01456876619121523</v>
+        <v>0.04596798680641746</v>
       </c>
       <c r="C63">
-        <v>-0.05068822652152508</v>
+        <v>-0.001843753018441941</v>
       </c>
       <c r="D63">
-        <v>0.02279834032883417</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05810646554296922</v>
+      </c>
+      <c r="E63">
+        <v>0.02137886658062103</v>
+      </c>
+      <c r="F63">
+        <v>-0.005264474352454133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.03163507277809898</v>
+        <v>0.1104157080520126</v>
       </c>
       <c r="C64">
-        <v>-0.09642963124440901</v>
+        <v>-0.01090796423839769</v>
       </c>
       <c r="D64">
-        <v>-0.00276936162201085</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04354982983209969</v>
+      </c>
+      <c r="E64">
+        <v>0.02482001899609198</v>
+      </c>
+      <c r="F64">
+        <v>-0.02586402612319791</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.05332069571215532</v>
+        <v>0.1474815390484802</v>
       </c>
       <c r="C65">
-        <v>-0.1179452067812841</v>
+        <v>-0.03253150108216121</v>
       </c>
       <c r="D65">
-        <v>-0.04006099378374236</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04007310923340587</v>
+      </c>
+      <c r="E65">
+        <v>0.005334442666839387</v>
+      </c>
+      <c r="F65">
+        <v>-0.03949767030409078</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.04988852810438967</v>
+        <v>0.1245359425090088</v>
       </c>
       <c r="C66">
-        <v>-0.1772447724773468</v>
+        <v>-0.01355583648736002</v>
       </c>
       <c r="D66">
-        <v>0.06993958349823674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1424994517251326</v>
+      </c>
+      <c r="E66">
+        <v>0.06623050646269259</v>
+      </c>
+      <c r="F66">
+        <v>-0.03150821782997836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.01864183780304779</v>
+        <v>0.0606873913933778</v>
       </c>
       <c r="C67">
-        <v>-0.07344655565144474</v>
+        <v>-0.003135865369099362</v>
       </c>
       <c r="D67">
-        <v>0.006319425762921592</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05538858346371504</v>
+      </c>
+      <c r="E67">
+        <v>0.01748256732915671</v>
+      </c>
+      <c r="F67">
+        <v>0.03398684421586504</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.02446042980700044</v>
+        <v>0.1166955355623532</v>
       </c>
       <c r="C68">
-        <v>-0.03639877335781569</v>
+        <v>-0.03129210546945949</v>
       </c>
       <c r="D68">
-        <v>-0.1823687162757256</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2604954464504668</v>
+      </c>
+      <c r="E68">
+        <v>-0.08639973087769713</v>
+      </c>
+      <c r="F68">
+        <v>-0.005699084386695293</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.009311726511613761</v>
+        <v>0.03991568807653315</v>
       </c>
       <c r="C69">
-        <v>-0.03562300744154299</v>
+        <v>-0.001356262823214037</v>
       </c>
       <c r="D69">
-        <v>-0.01634322017866755</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.006927110270697913</v>
+      </c>
+      <c r="E69">
+        <v>0.02265896619938288</v>
+      </c>
+      <c r="F69">
+        <v>0.000627949628190334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.01459853727557665</v>
+        <v>0.06583785095088193</v>
       </c>
       <c r="C70">
-        <v>-0.01302864920068236</v>
+        <v>0.02792657588258872</v>
       </c>
       <c r="D70">
-        <v>-0.03148811350251934</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02457985070643511</v>
+      </c>
+      <c r="E70">
+        <v>-0.03956017009687866</v>
+      </c>
+      <c r="F70">
+        <v>0.1847548015515499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.03022192575422486</v>
+        <v>0.1367761430909178</v>
       </c>
       <c r="C71">
-        <v>-0.0495255704484501</v>
+        <v>-0.03563047052409739</v>
       </c>
       <c r="D71">
-        <v>-0.198750008828401</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2729169478282603</v>
+      </c>
+      <c r="E71">
+        <v>-0.09594982902243528</v>
+      </c>
+      <c r="F71">
+        <v>-0.01235077222267133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.04820038329817353</v>
+        <v>0.1418906352153621</v>
       </c>
       <c r="C72">
-        <v>-0.1252813657539043</v>
+        <v>-0.02584877572793126</v>
       </c>
       <c r="D72">
-        <v>-0.03567838212454704</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006894037236813243</v>
+      </c>
+      <c r="E72">
+        <v>0.03883411305366599</v>
+      </c>
+      <c r="F72">
+        <v>-0.03276414989556858</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.05222982636244261</v>
+        <v>0.2011485325256883</v>
       </c>
       <c r="C73">
-        <v>-0.210471986221636</v>
+        <v>-0.01220217903759349</v>
       </c>
       <c r="D73">
-        <v>-0.04890914608408853</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01706541589052961</v>
+      </c>
+      <c r="E73">
+        <v>0.0634378776729321</v>
+      </c>
+      <c r="F73">
+        <v>-0.03797403408548372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.03211846421582255</v>
+        <v>0.09436227017674856</v>
       </c>
       <c r="C74">
-        <v>-0.1188768771518833</v>
+        <v>-0.01312869221024171</v>
       </c>
       <c r="D74">
-        <v>-0.02601891142363232</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01706056722462575</v>
+      </c>
+      <c r="E74">
+        <v>0.04389493275474881</v>
+      </c>
+      <c r="F74">
+        <v>-0.05652768293702343</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.05162575747986017</v>
+        <v>0.1279088208968474</v>
       </c>
       <c r="C75">
-        <v>-0.1283320610323091</v>
+        <v>-0.02761878974279773</v>
       </c>
       <c r="D75">
-        <v>-0.01862229246403767</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03040295369726971</v>
+      </c>
+      <c r="E75">
+        <v>0.05844144360321139</v>
+      </c>
+      <c r="F75">
+        <v>-0.01844417946385907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0002594575177515446</v>
+        <v>0.0004533229896201799</v>
       </c>
       <c r="C76">
-        <v>-0.00109116909859925</v>
+        <v>-0.0001548017093568003</v>
       </c>
       <c r="D76">
-        <v>-0.00170727195472842</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.000776998858394275</v>
+      </c>
+      <c r="E76">
+        <v>-0.0003834813264048798</v>
+      </c>
+      <c r="F76">
+        <v>-0.0006466432334722592</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.03030302380813316</v>
+        <v>0.08678248150146617</v>
       </c>
       <c r="C77">
-        <v>-0.09661668125388659</v>
+        <v>-0.00799573872303775</v>
       </c>
       <c r="D77">
-        <v>0.06101499755512965</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1132123908614104</v>
+      </c>
+      <c r="E77">
+        <v>0.03905838565862039</v>
+      </c>
+      <c r="F77">
+        <v>-0.03303897809242978</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.06765425612022158</v>
+        <v>0.1002935473224659</v>
       </c>
       <c r="C78">
-        <v>-0.1385889469127231</v>
+        <v>-0.03917485050519352</v>
       </c>
       <c r="D78">
-        <v>-0.008822826712887633</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1165131460938459</v>
+      </c>
+      <c r="E78">
+        <v>0.07400677585804069</v>
+      </c>
+      <c r="F78">
+        <v>-0.04472054033747305</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.04745146343632565</v>
+        <v>0.1644321119683065</v>
       </c>
       <c r="C79">
-        <v>-0.1390269503418362</v>
+        <v>-0.02216419237417211</v>
       </c>
       <c r="D79">
-        <v>-0.02352001695282929</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01513431099109378</v>
+      </c>
+      <c r="E79">
+        <v>0.04629863281559111</v>
+      </c>
+      <c r="F79">
+        <v>-0.0107895779899722</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.01626177394170593</v>
+        <v>0.08275579977269192</v>
       </c>
       <c r="C80">
-        <v>-0.08770057633084137</v>
+        <v>0.0008924564844528965</v>
       </c>
       <c r="D80">
-        <v>0.0003979313117235244</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05596013766344223</v>
+      </c>
+      <c r="E80">
+        <v>0.03658171048989671</v>
+      </c>
+      <c r="F80">
+        <v>0.02353937624706176</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.05439868709063866</v>
+        <v>0.1213800367870472</v>
       </c>
       <c r="C81">
-        <v>-0.1345633577912733</v>
+        <v>-0.03155511955136912</v>
       </c>
       <c r="D81">
-        <v>-0.01012496824793714</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01541777009129078</v>
+      </c>
+      <c r="E81">
+        <v>0.05743443660837887</v>
+      </c>
+      <c r="F81">
+        <v>-0.01645510615554801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.05116151784568244</v>
+        <v>0.1659482764984987</v>
       </c>
       <c r="C82">
-        <v>-0.1634766544533278</v>
+        <v>-0.02400627643640741</v>
       </c>
       <c r="D82">
-        <v>-0.009191304170286012</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004110691985370402</v>
+      </c>
+      <c r="E82">
+        <v>0.02859060390084433</v>
+      </c>
+      <c r="F82">
+        <v>-0.08030620740226845</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.02062625792700152</v>
+        <v>0.05980319655494781</v>
       </c>
       <c r="C83">
-        <v>-0.06550144284189909</v>
+        <v>-0.002742915557064155</v>
       </c>
       <c r="D83">
-        <v>0.01368477837359229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05140574142006005</v>
+      </c>
+      <c r="E83">
+        <v>0.005339772038592659</v>
+      </c>
+      <c r="F83">
+        <v>0.031664707881779</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.02920117086427399</v>
+        <v>0.0587159272557185</v>
       </c>
       <c r="C84">
-        <v>-0.0708358954448474</v>
+        <v>-0.01089898081537755</v>
       </c>
       <c r="D84">
-        <v>0.03876774733638266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06396662700860012</v>
+      </c>
+      <c r="E84">
+        <v>0.006499750708024147</v>
+      </c>
+      <c r="F84">
+        <v>-0.00404436453350004</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.04945713425706565</v>
+        <v>0.1364549534104983</v>
       </c>
       <c r="C85">
-        <v>-0.1205742683648959</v>
+        <v>-0.0274969051743898</v>
       </c>
       <c r="D85">
-        <v>-0.01330728475955009</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.0105761258501861</v>
+      </c>
+      <c r="E85">
+        <v>0.03844267229697063</v>
+      </c>
+      <c r="F85">
+        <v>-0.04529698047319041</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.01540461522833808</v>
+        <v>0.09418324834848597</v>
       </c>
       <c r="C86">
-        <v>-0.08248955063200789</v>
+        <v>0.006495694460148016</v>
       </c>
       <c r="D86">
-        <v>-0.1460578667498794</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04139878377676898</v>
+      </c>
+      <c r="E86">
+        <v>0.2123206996500981</v>
+      </c>
+      <c r="F86">
+        <v>0.9082829447030302</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.04880474163826615</v>
+        <v>0.09709322105833558</v>
       </c>
       <c r="C87">
-        <v>-0.1126941110460336</v>
+        <v>-0.01952661592544978</v>
       </c>
       <c r="D87">
-        <v>0.0610648703659423</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.0957073515062051</v>
+      </c>
+      <c r="E87">
+        <v>-0.05130747469918615</v>
+      </c>
+      <c r="F87">
+        <v>-0.05436331531778796</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.01747713763444566</v>
+        <v>0.06061936149042808</v>
       </c>
       <c r="C88">
-        <v>-0.05912545307327056</v>
+        <v>-0.002095461454403306</v>
       </c>
       <c r="D88">
-        <v>0.006900581501935727</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04964833664692971</v>
+      </c>
+      <c r="E88">
+        <v>0.02467687523231331</v>
+      </c>
+      <c r="F88">
+        <v>-0.01193102764650132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.01279997521333415</v>
+        <v>0.1340773994200234</v>
       </c>
       <c r="C89">
-        <v>-0.06472428585993992</v>
+        <v>-0.0129626313572744</v>
       </c>
       <c r="D89">
-        <v>-0.2292354220025131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.250600758379016</v>
+      </c>
+      <c r="E89">
+        <v>-0.09139555691358676</v>
+      </c>
+      <c r="F89">
+        <v>0.007742139622057425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.02939355026513231</v>
+        <v>0.1510987657467011</v>
       </c>
       <c r="C90">
-        <v>-0.05542069531492079</v>
+        <v>-0.03187761063002906</v>
       </c>
       <c r="D90">
-        <v>-0.2021323049686949</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.269642527384813</v>
+      </c>
+      <c r="E90">
+        <v>-0.1125713270105745</v>
+      </c>
+      <c r="F90">
+        <v>0.001581651883584078</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.03411987262702972</v>
+        <v>0.1204023554094016</v>
       </c>
       <c r="C91">
-        <v>-0.1024418826672408</v>
+        <v>-0.01869259146401597</v>
       </c>
       <c r="D91">
-        <v>-0.02461916334504909</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01281170655972973</v>
+      </c>
+      <c r="E91">
+        <v>0.05657703591861687</v>
+      </c>
+      <c r="F91">
+        <v>0.002862430582658001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.01627236333189052</v>
+        <v>0.1477542047080725</v>
       </c>
       <c r="C92">
-        <v>-0.06567305458872706</v>
+        <v>-0.02348163920973583</v>
       </c>
       <c r="D92">
-        <v>-0.2298602431168498</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.291851939513361</v>
+      </c>
+      <c r="E92">
+        <v>-0.1012910994131201</v>
+      </c>
+      <c r="F92">
+        <v>0.01321674178875647</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.02510576476871157</v>
+        <v>0.1523898070175868</v>
       </c>
       <c r="C93">
-        <v>-0.06094073084779542</v>
+        <v>-0.02767678311149236</v>
       </c>
       <c r="D93">
-        <v>-0.2230125257136408</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2689692144728223</v>
+      </c>
+      <c r="E93">
+        <v>-0.07769465949990405</v>
+      </c>
+      <c r="F93">
+        <v>-0.003020811717669453</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.04966878976410548</v>
+        <v>0.1303604343909946</v>
       </c>
       <c r="C94">
-        <v>-0.1401761127713321</v>
+        <v>-0.02441639123926051</v>
       </c>
       <c r="D94">
-        <v>0.001339761111762778</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04321850172215339</v>
+      </c>
+      <c r="E94">
+        <v>0.05818346063423568</v>
+      </c>
+      <c r="F94">
+        <v>-0.03588535957675451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.03440901604463229</v>
+        <v>0.1273921085635815</v>
       </c>
       <c r="C95">
-        <v>-0.1356832898823951</v>
+        <v>-0.003560600071179297</v>
       </c>
       <c r="D95">
-        <v>0.03403805793508001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09112548069816111</v>
+      </c>
+      <c r="E95">
+        <v>0.0460321991207216</v>
+      </c>
+      <c r="F95">
+        <v>0.007297063190337003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.955997382449031</v>
+        <v>0.1049227521758418</v>
       </c>
       <c r="C96">
-        <v>-0.2774295811663794</v>
+        <v>0.9876788917687436</v>
       </c>
       <c r="D96">
-        <v>-0.03233308398506951</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.04766075463097466</v>
+      </c>
+      <c r="E96">
+        <v>0.05544906103641074</v>
+      </c>
+      <c r="F96">
+        <v>-0.04230612254191927</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.0225842255720328</v>
+        <v>0.1928527696843264</v>
       </c>
       <c r="C97">
-        <v>-0.1655055962361105</v>
+        <v>0.007652906072838691</v>
       </c>
       <c r="D97">
-        <v>-0.09978137494730613</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01793047063430033</v>
+      </c>
+      <c r="E97">
+        <v>0.01825639447901669</v>
+      </c>
+      <c r="F97">
+        <v>0.09108587455628245</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.03859554964385914</v>
+        <v>0.2045549280478755</v>
       </c>
       <c r="C98">
-        <v>-0.1949875614660823</v>
+        <v>-0.006897990354478529</v>
       </c>
       <c r="D98">
-        <v>-0.003697022509455777</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01406576723766108</v>
+      </c>
+      <c r="E98">
+        <v>-0.08361557256335457</v>
+      </c>
+      <c r="F98">
+        <v>0.09434437946683609</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.008023178547146218</v>
+        <v>0.05571122442900726</v>
       </c>
       <c r="C99">
-        <v>-0.06104334213126075</v>
+        <v>0.004915687090751884</v>
       </c>
       <c r="D99">
-        <v>-0.0009984015650756621</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03950029562889064</v>
+      </c>
+      <c r="E99">
+        <v>0.02295653756395295</v>
+      </c>
+      <c r="F99">
+        <v>-0.001368599900268905</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.002297236300001915</v>
+        <v>0.1253844189460349</v>
       </c>
       <c r="C100">
-        <v>-0.1492063881793957</v>
+        <v>0.05467493126890749</v>
       </c>
       <c r="D100">
-        <v>0.7263740803930714</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3440591174315245</v>
+      </c>
+      <c r="E100">
+        <v>-0.8893156362464876</v>
+      </c>
+      <c r="F100">
+        <v>0.1407618583715757</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.01524197135475382</v>
+        <v>0.02789993887096396</v>
       </c>
       <c r="C101">
-        <v>-0.02801832078087879</v>
+        <v>-0.008204436265801401</v>
       </c>
       <c r="D101">
-        <v>-0.004130666175147416</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03115694935021156</v>
+      </c>
+      <c r="E101">
+        <v>0.01033707856528826</v>
+      </c>
+      <c r="F101">
+        <v>0.0124792773773396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
